--- a/output/Media_analise/media/Compositions/inner.xlsx
+++ b/output/Media_analise/media/Compositions/inner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\media\Compositions\Inner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb5363e8f87d921c/Área de Trabalho/faculdade/@Lab/Bisch/V.cholerae1/V. cholerae metabolism/output/Media_analise/media/Compositions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C3EDB-24C7-48B4-91F3-1942CF014DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E10C3EDB-24C7-48B4-91F3-1942CF014DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2897B399-59A1-4EAA-B2ED-E8BE297342A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,13 +519,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -560,7 +571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -580,7 +591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -603,7 +614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -620,7 +631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -634,7 +645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -648,7 +659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -671,7 +682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -694,7 +705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -708,7 +719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -731,7 +742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -754,7 +765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -777,7 +788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -800,7 +811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -823,7 +834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -846,7 +857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -869,7 +880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -889,7 +900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -912,7 +923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -941,6 +952,11 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="C2:G20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>